--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptprk-Ptprk.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.544364</v>
+        <v>19.97584633333333</v>
       </c>
       <c r="H2">
-        <v>79.633092</v>
+        <v>59.927539</v>
       </c>
       <c r="I2">
-        <v>0.4729533876416526</v>
+        <v>0.5797382655268795</v>
       </c>
       <c r="J2">
-        <v>0.5651889917752047</v>
+        <v>0.6587494728716036</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.544364</v>
+        <v>19.97584633333333</v>
       </c>
       <c r="N2">
-        <v>79.633092</v>
+        <v>59.927539</v>
       </c>
       <c r="O2">
-        <v>0.4729533876416526</v>
+        <v>0.5797382655268795</v>
       </c>
       <c r="P2">
-        <v>0.5651889917752047</v>
+        <v>0.6587494728716036</v>
       </c>
       <c r="Q2">
-        <v>704.6032601644961</v>
+        <v>399.0344367329467</v>
       </c>
       <c r="R2">
-        <v>6341.429341480465</v>
+        <v>3591.309930596521</v>
       </c>
       <c r="S2">
-        <v>0.2236849068817153</v>
+        <v>0.3360964565161146</v>
       </c>
       <c r="T2">
-        <v>0.3194385964238723</v>
+        <v>0.4339508680086155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.544364</v>
+        <v>19.97584633333333</v>
       </c>
       <c r="H3">
-        <v>79.633092</v>
+        <v>59.927539</v>
       </c>
       <c r="I3">
-        <v>0.4729533876416526</v>
+        <v>0.5797382655268795</v>
       </c>
       <c r="J3">
-        <v>0.5651889917752047</v>
+        <v>0.6587494728716036</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.176674</v>
       </c>
       <c r="O3">
-        <v>0.03668423288974032</v>
+        <v>0.05975306730825326</v>
       </c>
       <c r="P3">
-        <v>0.04383841017480673</v>
+        <v>0.06789667671151554</v>
       </c>
       <c r="Q3">
-        <v>54.65196098844534</v>
+        <v>41.12809689169845</v>
       </c>
       <c r="R3">
-        <v>491.8676488960081</v>
+        <v>370.152872025286</v>
       </c>
       <c r="S3">
-        <v>0.01734993221823801</v>
+        <v>0.03464113960119763</v>
       </c>
       <c r="T3">
-        <v>0.02477698684772689</v>
+        <v>0.04472689999344455</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.544364</v>
+        <v>19.97584633333333</v>
       </c>
       <c r="H4">
-        <v>79.633092</v>
+        <v>59.927539</v>
       </c>
       <c r="I4">
-        <v>0.4729533876416526</v>
+        <v>0.5797382655268795</v>
       </c>
       <c r="J4">
-        <v>0.5651889917752047</v>
+        <v>0.6587494728716036</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.032858</v>
+        <v>0.01061633333333333</v>
       </c>
       <c r="N4">
-        <v>0.09857399999999999</v>
+        <v>0.031849</v>
       </c>
       <c r="O4">
-        <v>0.0005854464025255763</v>
+        <v>0.0003081068291285177</v>
       </c>
       <c r="P4">
-        <v>0.0006996204501923524</v>
+        <v>0.0003500980068860779</v>
       </c>
       <c r="Q4">
-        <v>0.872194712312</v>
+        <v>0.2120702432901111</v>
       </c>
       <c r="R4">
-        <v>7.849752410808</v>
+        <v>1.908632189611</v>
       </c>
       <c r="S4">
-        <v>0.0002768888593570899</v>
+        <v>0.0001786213187159535</v>
       </c>
       <c r="T4">
-        <v>0.0003954177768695305</v>
+        <v>0.0002306268774896029</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>26.544364</v>
+        <v>19.97584633333333</v>
       </c>
       <c r="H5">
-        <v>79.633092</v>
+        <v>59.927539</v>
       </c>
       <c r="I5">
-        <v>0.4729533876416526</v>
+        <v>0.5797382655268795</v>
       </c>
       <c r="J5">
-        <v>0.5651889917752047</v>
+        <v>0.6587494728716036</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.477685</v>
+        <v>12.3983215</v>
       </c>
       <c r="N5">
-        <v>54.95537</v>
+        <v>24.796643</v>
       </c>
       <c r="O5">
-        <v>0.4895828058001398</v>
+        <v>0.3598236230852706</v>
       </c>
       <c r="P5">
-        <v>0.3900409915382079</v>
+        <v>0.2725754432404665</v>
       </c>
       <c r="Q5">
-        <v>729.3776725173401</v>
+        <v>247.6669650752628</v>
       </c>
       <c r="R5">
-        <v>4376.26603510404</v>
+        <v>1486.001790451577</v>
       </c>
       <c r="S5">
-        <v>0.2315498465342814</v>
+        <v>0.2086035231430524</v>
       </c>
       <c r="T5">
-        <v>0.2204468747584808</v>
+        <v>0.179558929552401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.544364</v>
+        <v>19.97584633333333</v>
       </c>
       <c r="H6">
-        <v>79.633092</v>
+        <v>59.927539</v>
       </c>
       <c r="I6">
-        <v>0.4729533876416526</v>
+        <v>0.5797382655268795</v>
       </c>
       <c r="J6">
-        <v>0.5651889917752047</v>
+        <v>0.6587494728716036</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01089533333333333</v>
+        <v>0.012988</v>
       </c>
       <c r="N6">
-        <v>0.032686</v>
+        <v>0.038964</v>
       </c>
       <c r="O6">
-        <v>0.0001941272659418405</v>
+        <v>0.0003769372504682585</v>
       </c>
       <c r="P6">
-        <v>0.0002319860615881189</v>
+        <v>0.0004283091695283727</v>
       </c>
       <c r="Q6">
-        <v>0.2892096939013333</v>
+        <v>0.2594462921773333</v>
       </c>
       <c r="R6">
-        <v>2.602887245112</v>
+        <v>2.335016629596</v>
       </c>
       <c r="S6">
-        <v>9.181314806080549E-05</v>
+        <v>0.0002185249477989391</v>
       </c>
       <c r="T6">
-        <v>0.0001311159682548895</v>
+        <v>0.0002821484396528898</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.176674</v>
       </c>
       <c r="I7">
-        <v>0.03668423288974032</v>
+        <v>0.05975306730825326</v>
       </c>
       <c r="J7">
-        <v>0.04383841017480673</v>
+        <v>0.06789667671151554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.544364</v>
+        <v>19.97584633333333</v>
       </c>
       <c r="N7">
-        <v>79.633092</v>
+        <v>59.927539</v>
       </c>
       <c r="O7">
-        <v>0.4729533876416526</v>
+        <v>0.5797382655268795</v>
       </c>
       <c r="P7">
-        <v>0.5651889917752047</v>
+        <v>0.6587494728716036</v>
       </c>
       <c r="Q7">
-        <v>54.65196098844534</v>
+        <v>41.12809689169845</v>
       </c>
       <c r="R7">
-        <v>491.8676488960081</v>
+        <v>370.152872025286</v>
       </c>
       <c r="S7">
-        <v>0.01734993221823801</v>
+        <v>0.03464113960119763</v>
       </c>
       <c r="T7">
-        <v>0.02477698684772689</v>
+        <v>0.04472689999344455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.176674</v>
       </c>
       <c r="I8">
-        <v>0.03668423288974032</v>
+        <v>0.05975306730825326</v>
       </c>
       <c r="J8">
-        <v>0.04383841017480673</v>
+        <v>0.06789667671151554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,10 +933,10 @@
         <v>6.176674</v>
       </c>
       <c r="O8">
-        <v>0.03668423288974032</v>
+        <v>0.05975306730825326</v>
       </c>
       <c r="P8">
-        <v>0.04383841017480673</v>
+        <v>0.06789667671151554</v>
       </c>
       <c r="Q8">
         <v>4.239033522475111</v>
@@ -945,10 +945,10 @@
         <v>38.151301702276</v>
       </c>
       <c r="S8">
-        <v>0.001345732942708705</v>
+        <v>0.003570429052744645</v>
       </c>
       <c r="T8">
-        <v>0.001921806206654598</v>
+        <v>0.004609958708468058</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.176674</v>
       </c>
       <c r="I9">
-        <v>0.03668423288974032</v>
+        <v>0.05975306730825326</v>
       </c>
       <c r="J9">
-        <v>0.04383841017480673</v>
+        <v>0.06789667671151554</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.032858</v>
+        <v>0.01061633333333333</v>
       </c>
       <c r="N9">
-        <v>0.09857399999999999</v>
+        <v>0.031849</v>
       </c>
       <c r="O9">
-        <v>0.0005854464025255763</v>
+        <v>0.0003081068291285177</v>
       </c>
       <c r="P9">
-        <v>0.0006996204501923524</v>
+        <v>0.0003500980068860779</v>
       </c>
       <c r="Q9">
-        <v>0.06765105143066666</v>
+        <v>0.02185787669177778</v>
       </c>
       <c r="R9">
-        <v>0.608859462876</v>
+        <v>0.196720890226</v>
       </c>
       <c r="S9">
-        <v>2.14766521747089E-05</v>
+        <v>1.841032809904881E-05</v>
       </c>
       <c r="T9">
-        <v>3.067024826221529E-05</v>
+        <v>2.377049119088998E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>6.176674</v>
       </c>
       <c r="I10">
-        <v>0.03668423288974032</v>
+        <v>0.05975306730825326</v>
       </c>
       <c r="J10">
-        <v>0.04383841017480673</v>
+        <v>0.06789667671151554</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>27.477685</v>
+        <v>12.3983215</v>
       </c>
       <c r="N10">
-        <v>54.95537</v>
+        <v>24.796643</v>
       </c>
       <c r="O10">
-        <v>0.4895828058001398</v>
+        <v>0.3598236230852706</v>
       </c>
       <c r="P10">
-        <v>0.3900409915382079</v>
+        <v>0.2725754432404665</v>
       </c>
       <c r="Q10">
-        <v>56.57356750656334</v>
+        <v>25.52679668423033</v>
       </c>
       <c r="R10">
-        <v>339.44140503938</v>
+        <v>153.160780105382</v>
       </c>
       <c r="S10">
-        <v>0.01795996966678483</v>
+        <v>0.02150056516931373</v>
       </c>
       <c r="T10">
-        <v>0.01709877697204028</v>
+        <v>0.01850696674919601</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,40 +1101,40 @@
         <v>6.176674</v>
       </c>
       <c r="I11">
-        <v>0.03668423288974032</v>
+        <v>0.05975306730825326</v>
       </c>
       <c r="J11">
-        <v>0.04383841017480673</v>
+        <v>0.06789667671151554</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01089533333333333</v>
+        <v>0.012988</v>
       </c>
       <c r="N11">
-        <v>0.032686</v>
+        <v>0.038964</v>
       </c>
       <c r="O11">
-        <v>0.0001941272659418405</v>
+        <v>0.0003769372504682585</v>
       </c>
       <c r="P11">
-        <v>0.0002319860615881189</v>
+        <v>0.0004283091695283727</v>
       </c>
       <c r="Q11">
-        <v>0.02243230737377778</v>
+        <v>0.02674088063733333</v>
       </c>
       <c r="R11">
-        <v>0.201890766364</v>
+        <v>0.240667925736</v>
       </c>
       <c r="S11">
-        <v>7.121409834059032E-06</v>
+        <v>2.252315689821777E-05</v>
       </c>
       <c r="T11">
-        <v>1.016990012273793E-05</v>
+        <v>2.908076921604562E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.032858</v>
+        <v>0.01061633333333333</v>
       </c>
       <c r="H12">
-        <v>0.09857399999999999</v>
+        <v>0.031849</v>
       </c>
       <c r="I12">
-        <v>0.0005854464025255763</v>
+        <v>0.0003081068291285177</v>
       </c>
       <c r="J12">
-        <v>0.0006996204501923524</v>
+        <v>0.0003500980068860779</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.544364</v>
+        <v>19.97584633333333</v>
       </c>
       <c r="N12">
-        <v>79.633092</v>
+        <v>59.927539</v>
       </c>
       <c r="O12">
-        <v>0.4729533876416526</v>
+        <v>0.5797382655268795</v>
       </c>
       <c r="P12">
-        <v>0.5651889917752047</v>
+        <v>0.6587494728716036</v>
       </c>
       <c r="Q12">
-        <v>0.872194712312</v>
+        <v>0.2120702432901111</v>
       </c>
       <c r="R12">
-        <v>7.849752410808</v>
+        <v>1.908632189611</v>
       </c>
       <c r="S12">
-        <v>0.0002768888593570899</v>
+        <v>0.0001786213187159535</v>
       </c>
       <c r="T12">
-        <v>0.0003954177768695305</v>
+        <v>0.0002306268774896029</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.032858</v>
+        <v>0.01061633333333333</v>
       </c>
       <c r="H13">
-        <v>0.09857399999999999</v>
+        <v>0.031849</v>
       </c>
       <c r="I13">
-        <v>0.0005854464025255763</v>
+        <v>0.0003081068291285177</v>
       </c>
       <c r="J13">
-        <v>0.0006996204501923524</v>
+        <v>0.0003500980068860779</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,22 +1243,22 @@
         <v>6.176674</v>
       </c>
       <c r="O13">
-        <v>0.03668423288974032</v>
+        <v>0.05975306730825326</v>
       </c>
       <c r="P13">
-        <v>0.04383841017480673</v>
+        <v>0.06789667671151554</v>
       </c>
       <c r="Q13">
-        <v>0.06765105143066666</v>
+        <v>0.02185787669177778</v>
       </c>
       <c r="R13">
-        <v>0.608859462876</v>
+        <v>0.196720890226</v>
       </c>
       <c r="S13">
-        <v>2.14766521747089E-05</v>
+        <v>1.841032809904881E-05</v>
       </c>
       <c r="T13">
-        <v>3.067024826221529E-05</v>
+        <v>2.377049119088998E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.032858</v>
+        <v>0.01061633333333333</v>
       </c>
       <c r="H14">
-        <v>0.09857399999999999</v>
+        <v>0.031849</v>
       </c>
       <c r="I14">
-        <v>0.0005854464025255763</v>
+        <v>0.0003081068291285177</v>
       </c>
       <c r="J14">
-        <v>0.0006996204501923524</v>
+        <v>0.0003500980068860779</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1299,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.032858</v>
+        <v>0.01061633333333333</v>
       </c>
       <c r="N14">
-        <v>0.09857399999999999</v>
+        <v>0.031849</v>
       </c>
       <c r="O14">
-        <v>0.0005854464025255763</v>
+        <v>0.0003081068291285177</v>
       </c>
       <c r="P14">
-        <v>0.0006996204501923524</v>
+        <v>0.0003500980068860779</v>
       </c>
       <c r="Q14">
-        <v>0.001079648164</v>
+        <v>0.0001127065334444444</v>
       </c>
       <c r="R14">
-        <v>0.009716833475999999</v>
+        <v>0.001014358801</v>
       </c>
       <c r="S14">
-        <v>3.427474902301391E-07</v>
+        <v>9.492981815562963E-08</v>
       </c>
       <c r="T14">
-        <v>4.894687743273499E-07</v>
+        <v>1.225686144256043E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.032858</v>
+        <v>0.01061633333333333</v>
       </c>
       <c r="H15">
-        <v>0.09857399999999999</v>
+        <v>0.031849</v>
       </c>
       <c r="I15">
-        <v>0.0005854464025255763</v>
+        <v>0.0003081068291285177</v>
       </c>
       <c r="J15">
-        <v>0.0006996204501923524</v>
+        <v>0.0003500980068860779</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.477685</v>
+        <v>12.3983215</v>
       </c>
       <c r="N15">
-        <v>54.95537</v>
+        <v>24.796643</v>
       </c>
       <c r="O15">
-        <v>0.4895828058001398</v>
+        <v>0.3598236230852706</v>
       </c>
       <c r="P15">
-        <v>0.3900409915382079</v>
+        <v>0.2725754432404665</v>
       </c>
       <c r="Q15">
-        <v>0.90286177373</v>
+        <v>0.1316247138178333</v>
       </c>
       <c r="R15">
-        <v>5.41717064238</v>
+        <v>0.7897482829070001</v>
       </c>
       <c r="S15">
-        <v>0.0002866244923940697</v>
+        <v>0.0001108641155543376</v>
       </c>
       <c r="T15">
-        <v>0.0002728806540934325</v>
+        <v>9.542811940457657E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.032858</v>
+        <v>0.01061633333333333</v>
       </c>
       <c r="H16">
-        <v>0.09857399999999999</v>
+        <v>0.031849</v>
       </c>
       <c r="I16">
-        <v>0.0005854464025255763</v>
+        <v>0.0003081068291285177</v>
       </c>
       <c r="J16">
-        <v>0.0006996204501923524</v>
+        <v>0.0003500980068860779</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01089533333333333</v>
+        <v>0.012988</v>
       </c>
       <c r="N16">
-        <v>0.032686</v>
+        <v>0.038964</v>
       </c>
       <c r="O16">
-        <v>0.0001941272659418405</v>
+        <v>0.0003769372504682585</v>
       </c>
       <c r="P16">
-        <v>0.0002319860615881189</v>
+        <v>0.0004283091695283727</v>
       </c>
       <c r="Q16">
-        <v>0.0003579988626666667</v>
+        <v>0.0001378849373333333</v>
       </c>
       <c r="R16">
-        <v>0.003221989764</v>
+        <v>0.001240964436</v>
       </c>
       <c r="S16">
-        <v>1.136511094777764E-07</v>
+        <v>1.16136941022197E-07</v>
       </c>
       <c r="T16">
-        <v>1.623021928466306E-07</v>
+        <v>1.499501865829145E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>27.477685</v>
+        <v>12.3983215</v>
       </c>
       <c r="H17">
-        <v>54.95537</v>
+        <v>24.796643</v>
       </c>
       <c r="I17">
-        <v>0.4895828058001398</v>
+        <v>0.3598236230852706</v>
       </c>
       <c r="J17">
-        <v>0.3900409915382079</v>
+        <v>0.2725754432404665</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.544364</v>
+        <v>19.97584633333333</v>
       </c>
       <c r="N17">
-        <v>79.633092</v>
+        <v>59.927539</v>
       </c>
       <c r="O17">
-        <v>0.4729533876416526</v>
+        <v>0.5797382655268795</v>
       </c>
       <c r="P17">
-        <v>0.5651889917752047</v>
+        <v>0.6587494728716036</v>
       </c>
       <c r="Q17">
-        <v>729.3776725173401</v>
+        <v>247.6669650752628</v>
       </c>
       <c r="R17">
-        <v>4376.26603510404</v>
+        <v>1486.001790451577</v>
       </c>
       <c r="S17">
-        <v>0.2315498465342814</v>
+        <v>0.2086035231430524</v>
       </c>
       <c r="T17">
-        <v>0.2204468747584808</v>
+        <v>0.179558929552401</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,16 +1529,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>27.477685</v>
+        <v>12.3983215</v>
       </c>
       <c r="H18">
-        <v>54.95537</v>
+        <v>24.796643</v>
       </c>
       <c r="I18">
-        <v>0.4895828058001398</v>
+        <v>0.3598236230852706</v>
       </c>
       <c r="J18">
-        <v>0.3900409915382079</v>
+        <v>0.2725754432404665</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,22 +1553,22 @@
         <v>6.176674</v>
       </c>
       <c r="O18">
-        <v>0.03668423288974032</v>
+        <v>0.05975306730825326</v>
       </c>
       <c r="P18">
-        <v>0.04383841017480673</v>
+        <v>0.06789667671151554</v>
       </c>
       <c r="Q18">
-        <v>56.57356750656334</v>
+        <v>25.52679668423033</v>
       </c>
       <c r="R18">
-        <v>339.44140503938</v>
+        <v>153.160780105382</v>
       </c>
       <c r="S18">
-        <v>0.01795996966678483</v>
+        <v>0.02150056516931373</v>
       </c>
       <c r="T18">
-        <v>0.01709877697204028</v>
+        <v>0.01850696674919601</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,16 +1591,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>27.477685</v>
+        <v>12.3983215</v>
       </c>
       <c r="H19">
-        <v>54.95537</v>
+        <v>24.796643</v>
       </c>
       <c r="I19">
-        <v>0.4895828058001398</v>
+        <v>0.3598236230852706</v>
       </c>
       <c r="J19">
-        <v>0.3900409915382079</v>
+        <v>0.2725754432404665</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1609,28 +1609,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.032858</v>
+        <v>0.01061633333333333</v>
       </c>
       <c r="N19">
-        <v>0.09857399999999999</v>
+        <v>0.031849</v>
       </c>
       <c r="O19">
-        <v>0.0005854464025255763</v>
+        <v>0.0003081068291285177</v>
       </c>
       <c r="P19">
-        <v>0.0006996204501923524</v>
+        <v>0.0003500980068860779</v>
       </c>
       <c r="Q19">
-        <v>0.90286177373</v>
+        <v>0.1316247138178333</v>
       </c>
       <c r="R19">
-        <v>5.41717064238</v>
+        <v>0.7897482829070001</v>
       </c>
       <c r="S19">
-        <v>0.0002866244923940697</v>
+        <v>0.0001108641155543376</v>
       </c>
       <c r="T19">
-        <v>0.0002728806540934325</v>
+        <v>9.542811940457657E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,16 +1653,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.477685</v>
+        <v>12.3983215</v>
       </c>
       <c r="H20">
-        <v>54.95537</v>
+        <v>24.796643</v>
       </c>
       <c r="I20">
-        <v>0.4895828058001398</v>
+        <v>0.3598236230852706</v>
       </c>
       <c r="J20">
-        <v>0.3900409915382079</v>
+        <v>0.2725754432404665</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1671,28 +1671,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>27.477685</v>
+        <v>12.3983215</v>
       </c>
       <c r="N20">
-        <v>54.95537</v>
+        <v>24.796643</v>
       </c>
       <c r="O20">
-        <v>0.4895828058001398</v>
+        <v>0.3598236230852706</v>
       </c>
       <c r="P20">
-        <v>0.3900409915382079</v>
+        <v>0.2725754432404665</v>
       </c>
       <c r="Q20">
-        <v>755.023172959225</v>
+        <v>153.7183760173622</v>
       </c>
       <c r="R20">
-        <v>3020.0926918369</v>
+        <v>614.8735040694489</v>
       </c>
       <c r="S20">
-        <v>0.2396913237351374</v>
+        <v>0.1294730397302109</v>
       </c>
       <c r="T20">
-        <v>0.1521319750801083</v>
+        <v>0.07429737225773675</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,46 +1715,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.477685</v>
+        <v>12.3983215</v>
       </c>
       <c r="H21">
-        <v>54.95537</v>
+        <v>24.796643</v>
       </c>
       <c r="I21">
-        <v>0.4895828058001398</v>
+        <v>0.3598236230852706</v>
       </c>
       <c r="J21">
-        <v>0.3900409915382079</v>
+        <v>0.2725754432404665</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.01089533333333333</v>
+        <v>0.012988</v>
       </c>
       <c r="N21">
-        <v>0.032686</v>
+        <v>0.038964</v>
       </c>
       <c r="O21">
-        <v>0.0001941272659418405</v>
+        <v>0.0003769372504682585</v>
       </c>
       <c r="P21">
-        <v>0.0002319860615881189</v>
+        <v>0.0004283091695283727</v>
       </c>
       <c r="Q21">
-        <v>0.2993785373033334</v>
+        <v>0.161029399642</v>
       </c>
       <c r="R21">
-        <v>1.79627122382</v>
+        <v>0.9661763978519999</v>
       </c>
       <c r="S21">
-        <v>9.504137154211621E-05</v>
+        <v>0.0001356309271392889</v>
       </c>
       <c r="T21">
-        <v>9.048407348487366E-05</v>
+        <v>0.0001167465617281523</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1771,22 +1771,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.01089533333333333</v>
+        <v>0.012988</v>
       </c>
       <c r="H22">
-        <v>0.032686</v>
+        <v>0.038964</v>
       </c>
       <c r="I22">
-        <v>0.0001941272659418405</v>
+        <v>0.0003769372504682585</v>
       </c>
       <c r="J22">
-        <v>0.0002319860615881189</v>
+        <v>0.0004283091695283727</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1795,28 +1795,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>26.544364</v>
+        <v>19.97584633333333</v>
       </c>
       <c r="N22">
-        <v>79.633092</v>
+        <v>59.927539</v>
       </c>
       <c r="O22">
-        <v>0.4729533876416526</v>
+        <v>0.5797382655268795</v>
       </c>
       <c r="P22">
-        <v>0.5651889917752047</v>
+        <v>0.6587494728716036</v>
       </c>
       <c r="Q22">
-        <v>0.2892096939013333</v>
+        <v>0.2594462921773333</v>
       </c>
       <c r="R22">
-        <v>2.602887245112</v>
+        <v>2.335016629596</v>
       </c>
       <c r="S22">
-        <v>9.181314806080549E-05</v>
+        <v>0.0002185249477989391</v>
       </c>
       <c r="T22">
-        <v>0.0001311159682548895</v>
+        <v>0.0002821484396528898</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1833,22 +1833,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.01089533333333333</v>
+        <v>0.012988</v>
       </c>
       <c r="H23">
-        <v>0.032686</v>
+        <v>0.038964</v>
       </c>
       <c r="I23">
-        <v>0.0001941272659418405</v>
+        <v>0.0003769372504682585</v>
       </c>
       <c r="J23">
-        <v>0.0002319860615881189</v>
+        <v>0.0004283091695283727</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,22 +1863,22 @@
         <v>6.176674</v>
       </c>
       <c r="O23">
-        <v>0.03668423288974032</v>
+        <v>0.05975306730825326</v>
       </c>
       <c r="P23">
-        <v>0.04383841017480673</v>
+        <v>0.06789667671151554</v>
       </c>
       <c r="Q23">
-        <v>0.02243230737377778</v>
+        <v>0.02674088063733333</v>
       </c>
       <c r="R23">
-        <v>0.201890766364</v>
+        <v>0.240667925736</v>
       </c>
       <c r="S23">
-        <v>7.121409834059032E-06</v>
+        <v>2.252315689821777E-05</v>
       </c>
       <c r="T23">
-        <v>1.016990012273793E-05</v>
+        <v>2.908076921604562E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1895,22 +1895,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.01089533333333333</v>
+        <v>0.012988</v>
       </c>
       <c r="H24">
-        <v>0.032686</v>
+        <v>0.038964</v>
       </c>
       <c r="I24">
-        <v>0.0001941272659418405</v>
+        <v>0.0003769372504682585</v>
       </c>
       <c r="J24">
-        <v>0.0002319860615881189</v>
+        <v>0.0004283091695283727</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1919,28 +1919,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.032858</v>
+        <v>0.01061633333333333</v>
       </c>
       <c r="N24">
-        <v>0.09857399999999999</v>
+        <v>0.031849</v>
       </c>
       <c r="O24">
-        <v>0.0005854464025255763</v>
+        <v>0.0003081068291285177</v>
       </c>
       <c r="P24">
-        <v>0.0006996204501923524</v>
+        <v>0.0003500980068860779</v>
       </c>
       <c r="Q24">
-        <v>0.0003579988626666667</v>
+        <v>0.0001378849373333333</v>
       </c>
       <c r="R24">
-        <v>0.003221989764</v>
+        <v>0.001240964436</v>
       </c>
       <c r="S24">
-        <v>1.136511094777764E-07</v>
+        <v>1.16136941022197E-07</v>
       </c>
       <c r="T24">
-        <v>1.623021928466306E-07</v>
+        <v>1.499501865829145E-07</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1957,22 +1957,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.01089533333333333</v>
+        <v>0.012988</v>
       </c>
       <c r="H25">
-        <v>0.032686</v>
+        <v>0.038964</v>
       </c>
       <c r="I25">
-        <v>0.0001941272659418405</v>
+        <v>0.0003769372504682585</v>
       </c>
       <c r="J25">
-        <v>0.0002319860615881189</v>
+        <v>0.0004283091695283727</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1981,28 +1981,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.477685</v>
+        <v>12.3983215</v>
       </c>
       <c r="N25">
-        <v>54.95537</v>
+        <v>24.796643</v>
       </c>
       <c r="O25">
-        <v>0.4895828058001398</v>
+        <v>0.3598236230852706</v>
       </c>
       <c r="P25">
-        <v>0.3900409915382079</v>
+        <v>0.2725754432404665</v>
       </c>
       <c r="Q25">
-        <v>0.2993785373033334</v>
+        <v>0.161029399642</v>
       </c>
       <c r="R25">
-        <v>1.79627122382</v>
+        <v>0.9661763978519999</v>
       </c>
       <c r="S25">
-        <v>9.504137154211621E-05</v>
+        <v>0.0001356309271392889</v>
       </c>
       <c r="T25">
-        <v>9.048407348487366E-05</v>
+        <v>0.0001167465617281523</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2019,52 +2019,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.01089533333333333</v>
+        <v>0.012988</v>
       </c>
       <c r="H26">
-        <v>0.032686</v>
+        <v>0.038964</v>
       </c>
       <c r="I26">
-        <v>0.0001941272659418405</v>
+        <v>0.0003769372504682585</v>
       </c>
       <c r="J26">
-        <v>0.0002319860615881189</v>
+        <v>0.0004283091695283727</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.01089533333333333</v>
+        <v>0.012988</v>
       </c>
       <c r="N26">
-        <v>0.032686</v>
+        <v>0.038964</v>
       </c>
       <c r="O26">
-        <v>0.0001941272659418405</v>
+        <v>0.0003769372504682585</v>
       </c>
       <c r="P26">
-        <v>0.0002319860615881189</v>
+        <v>0.0004283091695283727</v>
       </c>
       <c r="Q26">
-        <v>0.0001187082884444444</v>
+        <v>0.000168688144</v>
       </c>
       <c r="R26">
-        <v>0.001068374596</v>
+        <v>0.001518193296</v>
       </c>
       <c r="S26">
-        <v>3.768539538205408E-08</v>
+        <v>1.420816907905706E-07</v>
       </c>
       <c r="T26">
-        <v>5.38175327711665E-08</v>
+        <v>1.834487447020843E-07</v>
       </c>
     </row>
   </sheetData>
